--- a/TemperatureV.xlsx
+++ b/TemperatureV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhasa\Documents\CS50\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51080D8-53E8-425F-8ADB-1FAC6D43DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465CA89-7534-46DA-AB77-F17D17FEF28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F265864-DB8C-4224-BE01-EB7CE3B84288}"/>
   </bookViews>
@@ -47,19 +47,19 @@
     <t>phase</t>
   </si>
   <si>
-    <t>pressure _bar</t>
-  </si>
-  <si>
     <t>entropy_J_gK</t>
-  </si>
-  <si>
-    <t>enthalpy_ kJ_kg</t>
   </si>
   <si>
     <t>u_kJ_kg</t>
   </si>
   <si>
     <t>volume_m3_kg</t>
+  </si>
+  <si>
+    <t>pressure_bar</t>
+  </si>
+  <si>
+    <t>enthalpy_kJ_kg</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1670,15 +1670,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100518354C0C399C14C932DCDBE756AE43F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2034455e70accfce581f8b151a8f78e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7e27dc34-9a55-4451-bf28-132404c5ea79" xmlns:ns4="088fcf75-8bad-4d98-be94-eb653997ebb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="398ac89100fc04ad64b4e4f7a91feb8c" ns3:_="" ns4:_="">
     <xsd:import namespace="7e27dc34-9a55-4451-bf28-132404c5ea79"/>
@@ -1899,7 +1890,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="7e27dc34-9a55-4451-bf28-132404c5ea79" xsi:nil="true"/>
@@ -1907,15 +1898,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D930EF74-F03C-499F-B7A2-667DA39567BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF1CDF69-03DB-4F3D-9D02-4E3ADC11C94E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1934,7 +1926,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728F413D-9182-4527-9541-A0A04D2DA6A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1949,4 +1941,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D930EF74-F03C-499F-B7A2-667DA39567BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>